--- a/aug-19.xlsx
+++ b/aug-19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\basa hisab\augbazerlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112130BD-1BAC-4048-A2FB-3B9EA46A04BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AAA92C-4F5B-4CA3-A473-97DC18DF4FDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{983EB42A-9EF3-4C0A-949C-52B742681E58}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D12BFDE-FA7D-4787-9304-4D631ACC4910}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +862,9 @@
       <c r="A39" s="1">
         <v>500</v>
       </c>
+      <c r="D39" s="1">
+        <v>400</v>
+      </c>
       <c r="G39" s="1">
         <v>400</v>
       </c>
@@ -870,7 +873,7 @@
       </c>
       <c r="J39" s="1">
         <f>SUM(A39:I39)</f>
-        <v>1300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -922,7 +925,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>-259.22727272727275</v>
+        <v>140.77272727272725</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
@@ -946,7 +949,7 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" si="1"/>
-        <v>-601</v>
+        <v>-201</v>
       </c>
     </row>
   </sheetData>

--- a/aug-19.xlsx
+++ b/aug-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\basa hisab\augbazerlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AAA92C-4F5B-4CA3-A473-97DC18DF4FDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73EAF82-017D-4FF2-9916-0933CB1B5D2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{983EB42A-9EF3-4C0A-949C-52B742681E58}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="15375" windowHeight="8325" xr2:uid="{983EB42A-9EF3-4C0A-949C-52B742681E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D12BFDE-FA7D-4787-9304-4D631ACC4910}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
         <v>500</v>
       </c>
       <c r="D39" s="1">
-        <v>400</v>
+        <v>145</v>
       </c>
       <c r="G39" s="1">
         <v>400</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="J39" s="1">
         <f>SUM(A39:I39)</f>
-        <v>1700</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>140.77272727272725</v>
+        <v>-114.22727272727275</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" si="1"/>
-        <v>-201</v>
+        <v>-456</v>
       </c>
     </row>
   </sheetData>

--- a/aug-19.xlsx
+++ b/aug-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\basa hisab\augbazerlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73EAF82-017D-4FF2-9916-0933CB1B5D2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE48EA1F-6000-4FB3-8BAA-C3A073DAE95E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="15375" windowHeight="8325" xr2:uid="{983EB42A-9EF3-4C0A-949C-52B742681E58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{983EB42A-9EF3-4C0A-949C-52B742681E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>rakib</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>remaining</t>
+  </si>
+  <si>
+    <t>raj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +160,16 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <color theme="1"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,6 +222,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D12BFDE-FA7D-4787-9304-4D631ACC4910}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,41 +727,119 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(A6:I6)</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K6" s="1">
+        <v>660</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
+      <c r="J7" s="1">
+        <f>SUM(A7:I7)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -759,35 +851,35 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>SUM(A3:A32)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:J34" si="0">SUM(B3:B32)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="0"/>
@@ -795,11 +887,11 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="K34" s="1">
         <f>SUM(K3:K32)</f>
-        <v>1901</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -808,41 +900,41 @@
       </c>
       <c r="F36" s="7">
         <f>K34/J34</f>
-        <v>43.204545454545453</v>
+        <v>36.070422535211264</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>A34*F36</f>
-        <v>259.22727272727275</v>
+        <v>360.70422535211264</v>
       </c>
       <c r="B37" s="1">
         <f>(B34*F36)</f>
-        <v>259.22727272727275</v>
+        <v>360.70422535211264</v>
       </c>
       <c r="C37" s="1">
         <f>C34*F36</f>
-        <v>259.22727272727275</v>
+        <v>360.70422535211264</v>
       </c>
       <c r="D37" s="1">
         <f>D34*F36</f>
-        <v>259.22727272727275</v>
+        <v>360.70422535211264</v>
       </c>
       <c r="E37" s="1">
         <f>E34*F36</f>
-        <v>216.02272727272725</v>
+        <v>252.49295774647885</v>
       </c>
       <c r="F37" s="1">
         <f>F34*F36</f>
-        <v>129.61363636363637</v>
+        <v>180.35211267605632</v>
       </c>
       <c r="G37" s="1">
         <f>G34*F36</f>
-        <v>259.22727272727275</v>
+        <v>360.70422535211264</v>
       </c>
       <c r="H37" s="1">
         <f>H34*F36</f>
-        <v>259.22727272727275</v>
+        <v>324.63380281690138</v>
       </c>
       <c r="I37" s="1">
         <f>I34*F36</f>
@@ -850,11 +942,11 @@
       </c>
       <c r="J37" s="1">
         <f>J34*F36</f>
-        <v>1901</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -863,7 +955,7 @@
         <v>500</v>
       </c>
       <c r="D39" s="1">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="G39" s="1">
         <v>400</v>
@@ -873,7 +965,7 @@
       </c>
       <c r="J39" s="1">
         <f>SUM(A39:I39)</f>
-        <v>1445</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -906,42 +998,42 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>(A39-A37)</f>
-        <v>240.77272727272725</v>
+        <v>139.29577464788736</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ref="B44:J44" si="1">(B39-B37)</f>
-        <v>-259.22727272727275</v>
+        <v>-360.70422535211264</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>-259.22727272727275</v>
+        <v>-360.70422535211264</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>-114.22727272727275</v>
+        <v>39.295774647887356</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>-216.02272727272725</v>
+        <v>-252.49295774647885</v>
       </c>
       <c r="F44" s="1">
         <f>(F39-F37)</f>
-        <v>-129.61363636363637</v>
+        <v>-180.35211267605632</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="1"/>
-        <v>140.77272727272725</v>
+        <v>39.295774647887356</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="1"/>
-        <v>140.77272727272725</v>
+        <v>75.36619718309862</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="1"/>
@@ -949,7 +1041,7 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" si="1"/>
-        <v>-456</v>
+        <v>-861</v>
       </c>
     </row>
   </sheetData>

--- a/aug-19.xlsx
+++ b/aug-19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\basa hisab\augbazerlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE48EA1F-6000-4FB3-8BAA-C3A073DAE95E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E8AA9-5493-41A4-B34E-61806ED4D8CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{983EB42A-9EF3-4C0A-949C-52B742681E58}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>rakib</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>raj</t>
+  </si>
+  <si>
+    <t>nayeem saiful</t>
+  </si>
+  <si>
+    <t>nayeem diu mukdo</t>
+  </si>
+  <si>
+    <t>nazmul</t>
   </si>
 </sst>
 </file>
@@ -543,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D12BFDE-FA7D-4787-9304-4D631ACC4910}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,49 +806,598 @@
         <f>SUM(A7:I7)</f>
         <v>13</v>
       </c>
+      <c r="K7" s="1">
+        <v>205</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8:J31" si="0">SUM(A8:I8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
       <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>435</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K22" s="1">
+        <v>458</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -851,47 +1409,47 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>SUM(A3:A32)</f>
+        <v>19</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:J34" si="1">SUM(B3:B32)</f>
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B34" s="1">
-        <f t="shared" ref="B34:J34" si="0">SUM(B3:B32)</f>
-        <v>10</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
       <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>114</v>
       </c>
       <c r="K34" s="1">
         <f>SUM(K3:K32)</f>
-        <v>2561</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -900,41 +1458,41 @@
       </c>
       <c r="F36" s="7">
         <f>K34/J34</f>
-        <v>36.070422535211264</v>
+        <v>32.096491228070178</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>A34*F36</f>
-        <v>360.70422535211264</v>
+        <v>609.83333333333337</v>
       </c>
       <c r="B37" s="1">
         <f>(B34*F36)</f>
-        <v>360.70422535211264</v>
+        <v>481.44736842105266</v>
       </c>
       <c r="C37" s="1">
         <f>C34*F36</f>
-        <v>360.70422535211264</v>
+        <v>449.35087719298247</v>
       </c>
       <c r="D37" s="1">
         <f>D34*F36</f>
-        <v>360.70422535211264</v>
+        <v>353.06140350877195</v>
       </c>
       <c r="E37" s="1">
         <f>E34*F36</f>
-        <v>252.49295774647885</v>
+        <v>385.15789473684214</v>
       </c>
       <c r="F37" s="1">
         <f>F34*F36</f>
-        <v>180.35211267605632</v>
+        <v>481.44736842105266</v>
       </c>
       <c r="G37" s="1">
         <f>G34*F36</f>
-        <v>360.70422535211264</v>
+        <v>320.96491228070181</v>
       </c>
       <c r="H37" s="1">
         <f>H34*F36</f>
-        <v>324.63380281690138</v>
+        <v>577.73684210526324</v>
       </c>
       <c r="I37" s="1">
         <f>I34*F36</f>
@@ -942,7 +1500,7 @@
       </c>
       <c r="J37" s="1">
         <f>J34*F36</f>
-        <v>2561</v>
+        <v>3659.0000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
@@ -952,20 +1510,32 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>500</v>
+        <v>1500</v>
+      </c>
+      <c r="B39" s="1">
+        <v>196</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1172</v>
       </c>
       <c r="D39" s="1">
         <v>400</v>
       </c>
+      <c r="E39" s="1">
+        <v>595</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
       <c r="G39" s="1">
         <v>400</v>
       </c>
       <c r="H39" s="1">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="J39" s="1">
         <f>SUM(A39:I39)</f>
-        <v>1700</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -1005,43 +1575,43 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>(A39-A37)</f>
-        <v>139.29577464788736</v>
+        <v>890.16666666666663</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ref="B44:J44" si="1">(B39-B37)</f>
-        <v>-360.70422535211264</v>
+        <f t="shared" ref="B44:J44" si="2">(B39-B37)</f>
+        <v>-285.44736842105266</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="1"/>
-        <v>-360.70422535211264</v>
+        <f t="shared" si="2"/>
+        <v>722.64912280701753</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="1"/>
-        <v>39.295774647887356</v>
+        <f t="shared" si="2"/>
+        <v>46.938596491228054</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="1"/>
-        <v>-252.49295774647885</v>
+        <f t="shared" si="2"/>
+        <v>209.84210526315786</v>
       </c>
       <c r="F44" s="1">
         <f>(F39-F37)</f>
-        <v>-180.35211267605632</v>
+        <v>-381.44736842105266</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
-        <v>39.295774647887356</v>
+        <f t="shared" si="2"/>
+        <v>79.03508771929819</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
-        <v>75.36619718309862</v>
+        <f t="shared" si="2"/>
+        <v>-112.73684210526324</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="1"/>
-        <v>-861</v>
+        <f t="shared" si="2"/>
+        <v>1168.9999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/aug-19.xlsx
+++ b/aug-19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\basa hisab\augbazerlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E8AA9-5493-41A4-B34E-61806ED4D8CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D6498-0953-46F6-BDCF-8ECA9F963AF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{983EB42A-9EF3-4C0A-949C-52B742681E58}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>rakib</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>nazmul</t>
+  </si>
+  <si>
+    <t>khala</t>
   </si>
 </sst>
 </file>
@@ -552,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D12BFDE-FA7D-4787-9304-4D631ACC4910}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="K21" s="1">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
@@ -1337,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1350,54 +1353,287 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K23" s="1">
+        <v>375</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K24" s="1">
+        <v>80</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1105</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J27" s="1">
-        <f t="shared" si="0"/>
+      <c r="K27" s="1">
+        <v>480</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K28" s="1">
+        <v>110</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>430</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.3</v>
+      </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1409,27 +1645,27 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>SUM(A3:A32)</f>
-        <v>19</v>
+        <v>31.3</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:J34" si="1">SUM(B3:B32)</f>
-        <v>15</v>
+        <v>27.3</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>21.3</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>23.8</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>22.3</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
@@ -1437,19 +1673,19 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>200.3</v>
       </c>
       <c r="K34" s="1">
         <f>SUM(K3:K32)</f>
-        <v>3659</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1458,49 +1694,49 @@
       </c>
       <c r="F36" s="7">
         <f>K34/J34</f>
-        <v>32.096491228070178</v>
+        <v>31.298052920619071</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>A34*F36</f>
-        <v>609.83333333333337</v>
+        <v>979.62905641537691</v>
       </c>
       <c r="B37" s="1">
         <f>(B34*F36)</f>
-        <v>481.44736842105266</v>
+        <v>854.43684473290068</v>
       </c>
       <c r="C37" s="1">
         <f>C34*F36</f>
-        <v>449.35087719298247</v>
+        <v>813.74937593609582</v>
       </c>
       <c r="D37" s="1">
         <f>D34*F36</f>
-        <v>353.06140350877195</v>
+        <v>666.64852720918623</v>
       </c>
       <c r="E37" s="1">
         <f>E34*F36</f>
-        <v>385.15789473684214</v>
+        <v>744.89365951073387</v>
       </c>
       <c r="F37" s="1">
         <f>F34*F36</f>
-        <v>481.44736842105266</v>
+        <v>697.94658012980528</v>
       </c>
       <c r="G37" s="1">
         <f>G34*F36</f>
-        <v>320.96491228070181</v>
+        <v>312.98052920619068</v>
       </c>
       <c r="H37" s="1">
         <f>H34*F36</f>
-        <v>577.73684210526324</v>
+        <v>1158.0279580629056</v>
       </c>
       <c r="I37" s="1">
         <f>I34*F36</f>
-        <v>0</v>
+        <v>40.687468796804794</v>
       </c>
       <c r="J37" s="1">
         <f>J34*F36</f>
-        <v>3659.0000000000005</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
@@ -1510,32 +1746,32 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="B39" s="1">
-        <v>196</v>
+        <v>696</v>
       </c>
       <c r="C39" s="1">
         <v>1172</v>
       </c>
       <c r="D39" s="1">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E39" s="1">
-        <v>595</v>
+        <v>780</v>
       </c>
       <c r="F39" s="1">
         <v>100</v>
       </c>
       <c r="G39" s="1">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="H39" s="1">
-        <v>465</v>
+        <v>945</v>
       </c>
       <c r="J39" s="1">
         <f>SUM(A39:I39)</f>
-        <v>4828</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -1575,43 +1811,43 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>(A39-A37)</f>
-        <v>890.16666666666663</v>
+        <v>512.37094358462309</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" ref="B44:J44" si="2">(B39-B37)</f>
-        <v>-285.44736842105266</v>
+        <v>-158.43684473290068</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="2"/>
-        <v>722.64912280701753</v>
+        <v>358.25062406390418</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="2"/>
-        <v>46.938596491228054</v>
+        <v>233.35147279081377</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="2"/>
-        <v>209.84210526315786</v>
+        <v>35.106340489266131</v>
       </c>
       <c r="F44" s="1">
         <f>(F39-F37)</f>
-        <v>-381.44736842105266</v>
+        <v>-597.94658012980528</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="2"/>
-        <v>79.03508771929819</v>
+        <v>-52.980529206190681</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>-112.73684210526324</v>
+        <v>-213.02795806290555</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-40.687468796804794</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="2"/>
-        <v>1168.9999999999995</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
